--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.012621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.012621.xlsx_with_dialog_acts.xlsx
@@ -731,12 +731,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1789,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2045,12 +2045,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2171,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3105,12 +3105,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3189,12 +3189,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6347,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8489,12 +8489,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9077,12 +9077,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9119,12 +9119,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9207,12 +9207,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9249,12 +9249,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9291,12 +9291,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9711,12 +9711,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9925,12 +9925,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10051,12 +10051,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10807,12 +10807,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11857,12 +11857,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12233,12 +12233,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12637,12 +12637,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12957,12 +12957,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13757,12 +13757,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14237,12 +14237,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14357,12 +14357,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14437,12 +14437,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14517,12 +14517,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14637,12 +14637,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14797,12 +14797,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14917,12 +14917,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15557,12 +15557,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15757,12 +15757,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16317,12 +16317,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16957,12 +16957,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17117,12 +17117,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17477,12 +17477,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18041,12 +18041,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18601,12 +18601,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
